--- a/Parallel_Prog/laba3/tests1111.xlsx
+++ b/Parallel_Prog/laba3/tests1111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45467FAB-06FC-4684-8E1A-06449535F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD384AD-774B-46FE-A667-1B5FB1FDFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="36">
   <si>
     <t>Номер теста</t>
   </si>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,33 +309,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,8 +322,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7348,6 +7347,673 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1203335855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$W$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$V$12:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$W$12:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2172099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2593099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.21746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2544500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3045500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2523500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2191700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8329-4799-8BE6-8AB889AC4EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$X$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$V$12:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$X$12:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.32742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.11449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2747900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34063</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.15642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.14056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8329-4799-8BE6-8AB889AC4EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$Y$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$V$12:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$Y$12:$Y$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2440899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2943100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2686500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0616000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2338100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.21905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2760199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1603300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8329-4799-8BE6-8AB889AC4EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$Z$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>res!$V$12:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$Z$12:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3224100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2092400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2789200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.13358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1308860000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2030099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1655800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8329-4799-8BE6-8AB889AC4EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1745520431"/>
+        <c:axId val="1745521391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1745520431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745521391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1745521391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1745520431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11523,6 +12189,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18512,6 +19218,522 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23417,6 +24639,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104361</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C339AFC5-DC3F-67AD-A134-FDF5C7D99094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23686,27 +24944,27 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -23715,15 +24973,15 @@
       <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="4"/>
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
@@ -23731,20 +24989,20 @@
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -23752,15 +25010,15 @@
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16">
+      <c r="B3" s="16"/>
+      <c r="C3" s="19">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2">
         <v>0.203962</v>
       </c>
@@ -23793,15 +25051,15 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2">
         <v>0.39724199999999998</v>
       </c>
@@ -23833,15 +25091,15 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.81787799999999999</v>
       </c>
@@ -23873,15 +25131,15 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.6710100000000001</v>
       </c>
@@ -23913,15 +25171,15 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.4822199999999999</v>
       </c>
@@ -23953,15 +25211,15 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.7426599999999999</v>
       </c>
@@ -23993,15 +25251,15 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.0753</v>
       </c>
@@ -24033,15 +25291,15 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>30.581900000000001</v>
       </c>
@@ -24073,15 +25331,15 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>87.746700000000004</v>
       </c>
@@ -24113,15 +25371,15 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>195.47200000000001</v>
       </c>
@@ -24866,20 +26124,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:B3"/>
@@ -24895,6 +26139,20 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24906,7 +26164,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24915,21 +26173,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -24938,42 +26196,42 @@
       <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16">
+      <c r="B3" s="16"/>
+      <c r="C3" s="19">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2">
         <v>0.197405</v>
       </c>
@@ -25000,15 +26258,15 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2">
         <v>0.37165199999999998</v>
       </c>
@@ -25035,15 +26293,15 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.76242500000000002</v>
       </c>
@@ -25070,15 +26328,15 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.86988</v>
       </c>
@@ -25105,15 +26363,15 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.2449300000000001</v>
       </c>
@@ -25140,15 +26398,15 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.7799699999999996</v>
       </c>
@@ -25175,15 +26433,15 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.049099999999999</v>
       </c>
@@ -25210,15 +26468,15 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>40.117199999999997</v>
       </c>
@@ -25245,15 +26503,15 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>67.936700000000002</v>
       </c>
@@ -25280,15 +26538,15 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>153.78899999999999</v>
       </c>
@@ -25986,25 +27244,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A3:B3"/>
@@ -26015,6 +27254,25 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26026,27 +27284,27 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -26055,42 +27313,42 @@
       <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16">
+      <c r="B3" s="16"/>
+      <c r="C3" s="19">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2">
         <v>0.22224099999999999</v>
       </c>
@@ -26117,15 +27375,15 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2">
         <v>0.38862799999999997</v>
       </c>
@@ -26152,15 +27410,15 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.80991400000000002</v>
       </c>
@@ -26187,15 +27445,15 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.6478600000000001</v>
       </c>
@@ -26222,15 +27480,15 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>3.9149799999999999</v>
       </c>
@@ -26257,15 +27515,15 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>6.9365300000000003</v>
       </c>
@@ -26292,15 +27550,15 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.8932</v>
       </c>
@@ -26327,15 +27585,15 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>41.850700000000003</v>
       </c>
@@ -26362,15 +27620,15 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>63.0672</v>
       </c>
@@ -26397,15 +27655,15 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>151.16900000000001</v>
       </c>
@@ -27103,25 +28361,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A3:B3"/>
@@ -27132,6 +28371,25 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27143,7 +28401,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+      <selection activeCell="I3" sqref="I3:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27152,21 +28410,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -27175,42 +28433,42 @@
       <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16">
+      <c r="B3" s="16"/>
+      <c r="C3" s="19">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="2">
         <v>0.17438600000000001</v>
       </c>
@@ -27240,15 +28498,15 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2">
         <v>0.333648</v>
       </c>
@@ -27278,15 +28536,15 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="10">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2">
         <v>0.77481299999999997</v>
       </c>
@@ -27316,15 +28574,15 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17">
         <f>2^19</f>
         <v>524288</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2">
         <v>1.23621</v>
       </c>
@@ -27354,15 +28612,15 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="2">
         <v>2.4919799999999999</v>
       </c>
@@ -27392,15 +28650,15 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <f>2^21</f>
         <v>2097152</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="2">
         <v>5.383</v>
       </c>
@@ -27430,15 +28688,15 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
         <f>2^22</f>
         <v>4194304</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="2">
         <v>14.951000000000001</v>
       </c>
@@ -27468,15 +28726,15 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17">
         <f>2^23</f>
         <v>8388608</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="2">
         <v>30.981100000000001</v>
       </c>
@@ -27506,15 +28764,15 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17">
         <f>2^24</f>
         <v>16777216</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="2">
         <v>59.7196</v>
       </c>
@@ -27544,15 +28802,15 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17">
         <f>2^25</f>
         <v>33554432</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="2">
         <v>139.08199999999999</v>
       </c>
@@ -28253,25 +29511,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="A3:B3"/>
@@ -28282,6 +29521,25 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28290,15 +29548,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1063F5B5-CE0E-4740-ACB8-118ADF24D602}">
-  <dimension ref="A4:I62"/>
+  <dimension ref="A4:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -28315,7 +29573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>2^16</f>
         <v>65536</v>
@@ -28333,7 +29591,7 @@
         <v>0.17438600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>2^17</f>
         <v>131072</v>
@@ -28351,7 +29609,7 @@
         <v>0.333648</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>2^18</f>
         <v>262144</v>
@@ -28369,7 +29627,7 @@
         <v>0.77481299999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>2^19</f>
         <v>524288</v>
@@ -28387,7 +29645,7 @@
         <v>1.23621</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>2^20</f>
         <v>1048576</v>
@@ -28405,7 +29663,7 @@
         <v>2.4919799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>2^21</f>
         <v>2097152</v>
@@ -28423,7 +29681,7 @@
         <v>5.383</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>2^22</f>
         <v>4194304</v>
@@ -28440,8 +29698,23 @@
       <c r="E11" s="2">
         <v>14.951000000000001</v>
       </c>
+      <c r="V11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>2^23</f>
         <v>8388608</v>
@@ -28458,8 +29731,24 @@
       <c r="E12" s="2">
         <v>30.981100000000001</v>
       </c>
+      <c r="V12" s="2">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1.2172099999999999</v>
+      </c>
+      <c r="X12" s="6">
+        <v>1.32742</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>1.2440899999999999</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>1.3224100000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>2^24</f>
         <v>16777216</v>
@@ -28476,8 +29765,24 @@
       <c r="E13" s="2">
         <v>59.7196</v>
       </c>
+      <c r="V13" s="2">
+        <f>2^17</f>
+        <v>131072</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1.2593099999999999</v>
+      </c>
+      <c r="X13" s="6">
+        <v>1.31741</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1.2943100000000001</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>1.2092400000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>2^25</f>
         <v>33554432</v>
@@ -28494,114 +29799,256 @@
       <c r="E14" s="2">
         <v>139.08199999999999</v>
       </c>
+      <c r="V14" s="2">
+        <f>2^18</f>
+        <v>262144</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1.19354</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1.3106</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1.33477</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>1.04287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V15" s="2">
+        <f>2^19</f>
+        <v>524288</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1.21746</v>
+      </c>
+      <c r="X15" s="6">
+        <v>1.11449</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>1.2686500000000001</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>1.2667999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V16" s="2">
+        <f>2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1.2544500000000001</v>
+      </c>
+      <c r="X16" s="6">
+        <v>1.75136</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1.0616000000000001</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>1.46234</v>
+      </c>
+    </row>
+    <row r="17" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V17" s="2">
+        <f>2^21</f>
+        <v>2097152</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1.3045500000000001</v>
+      </c>
+      <c r="X17" s="6">
+        <v>1.2747900000000001</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>1.27573</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>1.2789200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V18" s="2">
+        <f>2^22</f>
+        <v>4194304</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1.3108</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1.34063</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>1.2338100000000001</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>1.13358</v>
+      </c>
+    </row>
+    <row r="19" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V19" s="2">
+        <f>2^23</f>
+        <v>8388608</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1.262</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1.28735</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>1.21905</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>1.1308860000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V20" s="2">
+        <f>2^24</f>
+        <v>16777216</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1.2523500000000001</v>
+      </c>
+      <c r="X20" s="6">
+        <v>1.15642</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>1.2760199999999999</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>1.2030099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V21" s="2">
+        <f>2^25</f>
+        <v>33554432</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1.2191700000000001</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1.14056</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>1.1603300000000001</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>1.1655800000000001</v>
+      </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="23">
+      <c r="F43" s="10">
         <v>2</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="10">
         <v>1.2491000000000001</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="10">
         <v>1.3171999999999999</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="10">
         <v>1.2990999999999999</v>
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="23">
+      <c r="F44" s="10">
         <v>4</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="10">
         <v>1.3021</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="10">
         <v>1.3680000000000001</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="10">
         <v>1.4009</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45" s="23">
+      <c r="F45" s="10">
         <v>6</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="10">
         <v>1.2367999999999999</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="10">
         <v>1.3130999999999999</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="10">
         <v>1.33</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="23">
+      <c r="F46" s="10">
         <v>8</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="10">
         <v>1.2216</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="10">
         <v>1.2989999999999999</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="10">
         <v>1.3109</v>
       </c>
     </row>
     <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="23">
+      <c r="F59" s="10">
         <v>2</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="10">
         <v>1.3171999999999999</v>
       </c>
     </row>
     <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="23">
+      <c r="F60" s="10">
         <v>4</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="10">
         <v>1.3680000000000001</v>
       </c>
     </row>
     <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="23">
+      <c r="F61" s="10">
         <v>6</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="10">
         <v>1.3130999999999999</v>
       </c>
     </row>
     <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="23">
+      <c r="F62" s="10">
         <v>8</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="10">
         <v>1.2989999999999999</v>
       </c>
     </row>
